--- a/biology/Botanique/Tricholome_à_odeur_de_savon/Tricholome_à_odeur_de_savon.xlsx
+++ b/biology/Botanique/Tricholome_à_odeur_de_savon/Tricholome_à_odeur_de_savon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A0_odeur_de_savon</t>
+          <t>Tricholome_à_odeur_de_savon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholoma saponaceum
 Tricholoma saponaceum, le Tricholome à odeur de savon est une espèce de champignons basidiomycètes du genre Tricholoma dans la famille des Tricholomataceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A0_odeur_de_savon</t>
+          <t>Tricholome_à_odeur_de_savon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tricholomes sont des champignons mycorrhiziens à spores blanches, non amyloïdes, à lamelles arrondies sur le pied qui n'est pas souvent muni d'un anneau.
 Quelques-uns sont comestibles et appréciés, la plupart sans intérêt, voire toxiques.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A0_odeur_de_savon</t>
+          <t>Tricholome_à_odeur_de_savon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignon au chapeau de couleur verdâtre, jaunâtre ou brunâtre dont le centre est souvent plus sombre, ayant de fines lames fort espacées, blanches à reflets verdâtres.
 Stipe (8-15 x 1,5 cm) un peu ventru ou en forme de fuseau, de teinte plus pâle que le chapeau et un peu rosé sur la partie inférieure de son robuste pied rond.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A0_odeur_de_savon</t>
+          <t>Tricholome_à_odeur_de_savon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse sur tous les terrains, de l’été à l'automne.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A0_odeur_de_savon</t>
+          <t>Tricholome_à_odeur_de_savon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon qui n’est pas comestible.
 </t>
